--- a/data/activitiesData.xlsx
+++ b/data/activitiesData.xlsx
@@ -1,92 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive\Documentos\Unimet\Modelacion Sist Redes\Proyectos\Proyecto 2\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3746C416-4A85-490D-B16C-A85C04069634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>predecessors</t>
-  </si>
-  <si>
-    <t>act 1</t>
-  </si>
-  <si>
-    <t>act 2</t>
-  </si>
-  <si>
-    <t>act 3</t>
-  </si>
-  <si>
-    <t>act 4</t>
-  </si>
-  <si>
-    <t>act 5</t>
-  </si>
-  <si>
-    <t>act6</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -101,65 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -174,28 +147,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -238,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -273,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -297,6 +268,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -307,31 +279,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -353,7 +325,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -411,7 +383,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -424,12 +396,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -447,152 +420,218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>predecessors</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>act 1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>act 2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>act 3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>act 4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>act 5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>act6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>acty 7</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>actividad 8</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>pa ve</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10" t="str">
-        <f>"3,4"</f>
-        <v>3,4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/activitiesData.xlsx
+++ b/data/activitiesData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,46 +591,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>actividad 8</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>pa ve</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/activitiesData.xlsx
+++ b/data/activitiesData.xlsx
@@ -1,37 +1,109 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijlem\Desktop\Proyecto de Modelación\Proyecto 2\Proyecto-Ruta-Critica\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF47D9C-30AA-4AC3-9850-6A1EEEDC02DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-19020" yWindow="2625" windowWidth="15375" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>predecessors</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>act 1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>act 2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>act 3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>act 4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>act 5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>act6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>acty 7</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +118,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,175 +442,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>duration</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>predecessors</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>act 1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>act 2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>act 3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>act 4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>act 5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>act6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>acty 7</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/activitiesData.xlsx
+++ b/data/activitiesData.xlsx
@@ -1,37 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijlem\Desktop\Proyecto de Modelación\Proyecto 2\Proyecto-Ruta-Critica\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C41897D-609B-4CF3-99BE-33DC19E880CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-20610" yWindow="1035" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>predecessors</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Act 1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Act 2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Act 3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Act 4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Act 5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Act 6</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +109,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,175 +433,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>duration</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>predecessors</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>act 1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>act 2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>act 3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>act 4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>act 5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>4</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>act6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>acty 7</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/activitiesData.xlsx
+++ b/data/activitiesData.xlsx
@@ -1,109 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijlem\Desktop\Proyecto de Modelación\Proyecto 2\Proyecto-Ruta-Critica\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF47D9C-30AA-4AC3-9850-6A1EEEDC02DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-19020" yWindow="2625" windowWidth="15375" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>predecessors</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>act 1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>act 2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>act 3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>act 4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>act 5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>act6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>acty 7</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -442,119 +420,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>predecessors</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>act 1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>act 2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>act 3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>act 4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>act 5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>act6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>acty 7</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>pa ve</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6,5</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/activitiesData.xlsx
+++ b/data/activitiesData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijlem\Desktop\Proyecto de Modelación\Proyecto 2\Proyecto-Ruta-Critica\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF47D9C-30AA-4AC3-9850-6A1EEEDC02DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED24519-785A-48F2-A28B-7A5CC8575644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19020" yWindow="2625" windowWidth="15375" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="1035" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>number</t>
   </si>
@@ -70,16 +70,7 @@
     <t>act6</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>acty 7</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>4,5</t>
+    <t>1,4</t>
   </si>
 </sst>
 </file>
@@ -443,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -473,7 +464,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -486,9 +477,6 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -500,6 +488,9 @@
       <c r="C4">
         <v>5</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -509,10 +500,10 @@
         <v>11</v>
       </c>
       <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -523,10 +514,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -537,24 +528,10 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
